--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
@@ -531,16 +531,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.589336</v>
+        <v>0.167796</v>
       </c>
       <c r="H2">
-        <v>1.768008</v>
+        <v>0.5033880000000001</v>
       </c>
       <c r="I2">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="J2">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,28 +549,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.589336</v>
+        <v>0.167796</v>
       </c>
       <c r="N2">
-        <v>1.768008</v>
+        <v>0.5033880000000001</v>
       </c>
       <c r="O2">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="P2">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="Q2">
-        <v>0.347316920896</v>
+        <v>0.02815549761600001</v>
       </c>
       <c r="R2">
-        <v>3.125852288064</v>
+        <v>0.2533994785440001</v>
       </c>
       <c r="S2">
-        <v>0.0159484036697989</v>
+        <v>0.001579241351734378</v>
       </c>
       <c r="T2">
-        <v>0.0159484036697989</v>
+        <v>0.001579241351734378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.589336</v>
+        <v>0.167796</v>
       </c>
       <c r="H3">
-        <v>1.768008</v>
+        <v>0.5033880000000001</v>
       </c>
       <c r="I3">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="J3">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>9.517122000000001</v>
       </c>
       <c r="O3">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="P3">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="Q3">
-        <v>1.869594203664</v>
+        <v>0.5323116677040001</v>
       </c>
       <c r="R3">
-        <v>16.826347832976</v>
+        <v>4.790805009336001</v>
       </c>
       <c r="S3">
-        <v>0.0858496700414952</v>
+        <v>0.02985735180795129</v>
       </c>
       <c r="T3">
-        <v>0.0858496700414952</v>
+        <v>0.02985735180795129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.589336</v>
+        <v>0.167796</v>
       </c>
       <c r="H4">
-        <v>1.768008</v>
+        <v>0.5033880000000001</v>
       </c>
       <c r="I4">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="J4">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9049306666666667</v>
+        <v>0.8822103333333334</v>
       </c>
       <c r="N4">
-        <v>2.714792</v>
+        <v>2.646631</v>
       </c>
       <c r="O4">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="P4">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="Q4">
-        <v>0.5333082193706666</v>
+        <v>0.148031365092</v>
       </c>
       <c r="R4">
-        <v>4.799773974336</v>
+        <v>1.332282285828</v>
       </c>
       <c r="S4">
-        <v>0.02448891560193206</v>
+        <v>0.00830307658899717</v>
       </c>
       <c r="T4">
-        <v>0.02448891560193206</v>
+        <v>0.00830307658899717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>9.517122000000001</v>
       </c>
       <c r="I5">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="J5">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -735,28 +735,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.589336</v>
+        <v>0.167796</v>
       </c>
       <c r="N5">
-        <v>1.768008</v>
+        <v>0.5033880000000001</v>
       </c>
       <c r="O5">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="P5">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="Q5">
-        <v>1.869594203664</v>
+        <v>0.5323116677040001</v>
       </c>
       <c r="R5">
-        <v>16.826347832976</v>
+        <v>4.790805009336001</v>
       </c>
       <c r="S5">
-        <v>0.0858496700414952</v>
+        <v>0.02985735180795129</v>
       </c>
       <c r="T5">
-        <v>0.0858496700414952</v>
+        <v>0.02985735180795129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>9.517122000000001</v>
       </c>
       <c r="I6">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="J6">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>9.517122000000001</v>
       </c>
       <c r="O6">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="P6">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="Q6">
         <v>10.063956795876</v>
@@ -815,10 +815,10 @@
         <v>90.57561116288402</v>
       </c>
       <c r="S6">
-        <v>0.4621256145021148</v>
+        <v>0.5644871545471741</v>
       </c>
       <c r="T6">
-        <v>0.4621256145021148</v>
+        <v>0.5644871545471741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>9.517122000000001</v>
       </c>
       <c r="I7">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="J7">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9049306666666667</v>
+        <v>0.8822103333333334</v>
       </c>
       <c r="N7">
-        <v>2.714792</v>
+        <v>2.646631</v>
       </c>
       <c r="O7">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="P7">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="Q7">
-        <v>2.870778518736</v>
+        <v>2.798701123998</v>
       </c>
       <c r="R7">
-        <v>25.837006668624</v>
+        <v>25.188310115982</v>
       </c>
       <c r="S7">
-        <v>0.1318229314750221</v>
+        <v>0.1569790953952615</v>
       </c>
       <c r="T7">
-        <v>0.1318229314750221</v>
+        <v>0.1569790953952615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9049306666666667</v>
+        <v>0.8822103333333334</v>
       </c>
       <c r="H8">
-        <v>2.714792</v>
+        <v>2.646631</v>
       </c>
       <c r="I8">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="J8">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -921,28 +921,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.589336</v>
+        <v>0.167796</v>
       </c>
       <c r="N8">
-        <v>1.768008</v>
+        <v>0.5033880000000001</v>
       </c>
       <c r="O8">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="P8">
-        <v>0.1262869893132262</v>
+        <v>0.03973966974868284</v>
       </c>
       <c r="Q8">
-        <v>0.5333082193706666</v>
+        <v>0.148031365092</v>
       </c>
       <c r="R8">
-        <v>4.799773974336</v>
+        <v>1.332282285828</v>
       </c>
       <c r="S8">
-        <v>0.02448891560193206</v>
+        <v>0.00830307658899717</v>
       </c>
       <c r="T8">
-        <v>0.02448891560193206</v>
+        <v>0.00830307658899717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9049306666666667</v>
+        <v>0.8822103333333334</v>
       </c>
       <c r="H9">
-        <v>2.714792</v>
+        <v>2.646631</v>
       </c>
       <c r="I9">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="J9">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>9.517122000000001</v>
       </c>
       <c r="O9">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="P9">
-        <v>0.6797982160186321</v>
+        <v>0.751323601750387</v>
       </c>
       <c r="Q9">
-        <v>2.870778518736</v>
+        <v>2.798701123998</v>
       </c>
       <c r="R9">
-        <v>25.837006668624</v>
+        <v>25.188310115982</v>
       </c>
       <c r="S9">
-        <v>0.1318229314750221</v>
+        <v>0.1569790953952615</v>
       </c>
       <c r="T9">
-        <v>0.1318229314750221</v>
+        <v>0.1569790953952615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9049306666666667</v>
+        <v>0.8822103333333334</v>
       </c>
       <c r="H10">
-        <v>2.714792</v>
+        <v>2.646631</v>
       </c>
       <c r="I10">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="J10">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9049306666666667</v>
+        <v>0.8822103333333334</v>
       </c>
       <c r="N10">
-        <v>2.714792</v>
+        <v>2.646631</v>
       </c>
       <c r="O10">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="P10">
-        <v>0.1939147946681417</v>
+        <v>0.2089367285009301</v>
       </c>
       <c r="Q10">
-        <v>0.8188995114737778</v>
+        <v>0.7782950722401113</v>
       </c>
       <c r="R10">
-        <v>7.370095603264001</v>
+        <v>7.004655650161001</v>
       </c>
       <c r="S10">
-        <v>0.03760294759118756</v>
+        <v>0.04365455651667137</v>
       </c>
       <c r="T10">
-        <v>0.03760294759118756</v>
+        <v>0.04365455651667137</v>
       </c>
     </row>
   </sheetData>
